--- a/Evaluation/EvaluationData.xlsx
+++ b/Evaluation/EvaluationData.xlsx
@@ -1,21 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariakeet/Desktop/drafts/CQ-CNL/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5F3A86-0BAB-C442-B68B-B061A824EA17}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14200" tabRatio="767" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20800" windowHeight="19520" tabRatio="767" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SetB-CQsRaw" sheetId="1" r:id="rId1"/>
-    <sheet name="SetB-CQsAnnotated" sheetId="2" r:id="rId2"/>
-    <sheet name="SetA-CQsRaw" sheetId="3" r:id="rId3"/>
-    <sheet name="SetA-CQsAnnotated" sheetId="4" r:id="rId4"/>
+    <sheet name="SetA-CQsRaw" sheetId="3" r:id="rId1"/>
+    <sheet name="SetA-CQsAnnotated" sheetId="4" r:id="rId2"/>
+    <sheet name="SetB-CQsRaw" sheetId="1" r:id="rId3"/>
+    <sheet name="SetBSetC-CQsAnnotated" sheetId="2" r:id="rId4"/>
     <sheet name="FInalList" sheetId="7" r:id="rId5"/>
     <sheet name="testsetCQs.csv" sheetId="8" r:id="rId6"/>
+    <sheet name="RenBezerraLists" sheetId="9" r:id="rId7"/>
+    <sheet name="RenBezerraOnSetABC" sheetId="10" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -23,8 +37,86 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">when aligning CE to EC and OP/OPE/DP to PC and taking into accoutn's Wesniewski et al's list form CQ to pattern and from there to CLaRO template
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">when aligning CE to EC and OP/OPE/DP to PC and taking into accoutn's Wesniewski et al's list form CQ to pattern and from there to CLaRO template
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="725">
   <si>
     <t>Ontology name:</t>
   </si>
@@ -1873,29 +1965,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>EC1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">What EC1 PC1 I PC1 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
       <t>EC2</t>
     </r>
     <r>
@@ -2304,15 +2373,388 @@
   <si>
     <t>note: this oen was corrected, as I forgot the 'it' in the chunking</t>
   </si>
+  <si>
+    <t>Which [CE1] [OPE] [CE2]?</t>
+  </si>
+  <si>
+    <t>Find [CE1] with [CE2].</t>
+  </si>
+  <si>
+    <t>How many [CE1] [OPE] [CE2]?</t>
+  </si>
+  <si>
+    <t>Does [CE1] [OPE] [CE2]?</t>
+  </si>
+  <si>
+    <t>Be there [CE1] with [CE2]?</t>
+  </si>
+  <si>
+    <t>Who [OPE] [CE]?</t>
+  </si>
+  <si>
+    <t>Be there [CE1] [OPE]ing [CE2]?</t>
+  </si>
+  <si>
+    <t>Which [CE1] [OPE] no [CE2]?</t>
+  </si>
+  <si>
+    <t>How much does [CE] [DP]?</t>
+  </si>
+  <si>
+    <t>What type of [CE] is [I]?</t>
+  </si>
+  <si>
+    <t>Is the [CE1] [CE2]?</t>
+  </si>
+  <si>
+    <t>What [CE] has the [NM] [DP]?</t>
+  </si>
+  <si>
+    <t>What is the [NM] [CE1] to [OPE] [CE2]?</t>
+  </si>
+  <si>
+    <t>Where do I [OPE] [CE]?</t>
+  </si>
+  <si>
+    <t>Which are [CE]?</t>
+  </si>
+  <si>
+    <t>When did/was [CE] [PE]?</t>
+  </si>
+  <si>
+    <t>What [CE1] do I need to [OPE] [CE2]?</t>
+  </si>
+  <si>
+    <t>Which [CE1] [OPE] [QM] [CE2]?</t>
+  </si>
+  <si>
+    <t>R1a</t>
+  </si>
+  <si>
+    <t>R1b</t>
+  </si>
+  <si>
+    <t>R1c</t>
+  </si>
+  <si>
+    <t>R1d</t>
+  </si>
+  <si>
+    <t>R1e</t>
+  </si>
+  <si>
+    <t>R1f</t>
+  </si>
+  <si>
+    <t>R1g</t>
+  </si>
+  <si>
+    <t>R1h</t>
+  </si>
+  <si>
+    <t>Ren et al. number</t>
+  </si>
+  <si>
+    <t>template</t>
+  </si>
+  <si>
+    <t>CLaRO number</t>
+  </si>
+  <si>
+    <t>no match</t>
+  </si>
+  <si>
+    <t>is there</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>not a question</t>
+  </si>
+  <si>
+    <t>2a, sort of</t>
+  </si>
+  <si>
+    <t>8 or 29</t>
+  </si>
+  <si>
+    <t>8 if 'have' is the OPE; or 29 as chunked by the algorithm into a way that ended up as 29 in CLaRO (given the example in the paper)</t>
+  </si>
+  <si>
+    <t>chunked by the algorithm into a way that ended up as 2a in CLaRO (given the example in the paper)</t>
+  </si>
+  <si>
+    <t>from the CQ "What pizza has the lowest price?",  it's not even in the Pizza CQ set. Possibly could fit 81, if it's in proper english using 'which'</t>
+  </si>
+  <si>
+    <t>Wisniewski's CQ set changed that sample sentence of "Where do I get updates?" from the SWO into Where do I get updates for this software? That eventuall ended up for corresponding template 76a.</t>
+  </si>
+  <si>
+    <t>SWO CQ "When was the 1.0 version released?" was modified by Wisniewski into "When was the 1.0 version of [it] released?" and process that ended up as CLaRO template 72</t>
+  </si>
+  <si>
+    <t>from CQ "Which pizza has the most toppings?", but is not in the Pizza CQ list</t>
+  </si>
+  <si>
+    <t>Do [CE1] have [QM] values of [DP]?</t>
+  </si>
+  <si>
+    <t>Bezerra et al. number</t>
+  </si>
+  <si>
+    <t>same as R1</t>
+  </si>
+  <si>
+    <t>What + &lt;property&gt; +&lt;class&gt;?</t>
+  </si>
+  <si>
+    <t>How many + &lt;property&gt; + &lt;class&gt;?</t>
+  </si>
+  <si>
+    <t>From which + &lt;property&gt; + &lt;class&gt;?</t>
+  </si>
+  <si>
+    <t>Is + &lt;class&gt;+ a +&lt;class&gt;?</t>
+  </si>
+  <si>
+    <t>Is + &lt;individual&gt;+ a +&lt;class&gt;?</t>
+  </si>
+  <si>
+    <t>Which + type + &lt;class&gt;?</t>
+  </si>
+  <si>
+    <t>Does &lt;class&gt; + &lt;property&gt; + &lt;class&gt;?</t>
+  </si>
+  <si>
+    <t>Which + disjoint &lt;class&gt;?</t>
+  </si>
+  <si>
+    <t>Are + &lt;class&gt; + &lt;class&gt;disjoint?</t>
+  </si>
+  <si>
+    <t>Which + &lt;class&gt; + &lt;property&gt; + &lt;class&gt; + not + &lt;property&gt; + &lt;class&gt;?</t>
+  </si>
+  <si>
+    <t>Is &lt;class&gt; + &lt;class&gt; + or + &lt;class&gt;?</t>
+  </si>
+  <si>
+    <t>Is &lt;class&gt; + &lt;individual&gt; + or + &lt;individual&gt;?</t>
+  </si>
+  <si>
+    <t>Which + instances + &lt;country&gt;?</t>
+  </si>
+  <si>
+    <t>Is &lt;individual&gt; + &lt;class&gt;?</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>B13</t>
+  </si>
+  <si>
+    <t>B14</t>
+  </si>
+  <si>
+    <t>example given "How many toppings does the interesting pizza have?". But this is not in the Pizza CQ set, and the pattern does not match the sample question, which has two classes in there (topping and pizza), correcting the template into "How many class prop class?", then template 15 fits</t>
+  </si>
+  <si>
+    <t>sample CQ of "Which are the types of Pizza?", but such questions should be 'what', and then it matches 44.</t>
+  </si>
+  <si>
+    <t>see also R1d, same case</t>
+  </si>
+  <si>
+    <t>with example "Which are the disjoint classes of Vegetarian Pizza?", btu is not in the Pizza CQ set. CLaRO doesn't have 'disjoint' or 'different from' in the temaplte text</t>
+  </si>
+  <si>
+    <t>"Which are the instances of the country?" also not in Pizza CQ set, fits with 77, as a variant.</t>
+  </si>
+  <si>
+    <t>percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from the CQ "What is the best/fastest/most robust software to read/edit this data?" which does not appear in the SWO CQ set. It appears as "Which…". In that case, it turned eventually into our template 81 </t>
+  </si>
+  <si>
+    <t>after rewriting</t>
+  </si>
+  <si>
+    <t>CLaRO doesn't have 'how much'. Came from the Pizza set "How much does Margherita Pizza weigh?" or, "What is the weight of a Pizza Margherita" and then template 60</t>
+  </si>
+  <si>
+    <t>y, but data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">of the 19 distinct are not in CLaRO, that's </t>
+  </si>
+  <si>
+    <t xml:space="preserve">of the 14 are not in CLaRO, that's </t>
+  </si>
+  <si>
+    <t>total of the 19+14=33 that are not in CLaRO</t>
+  </si>
+  <si>
+    <t>ambiguous</t>
+  </si>
+  <si>
+    <t>each pizza comes in diff sizes? Or diff size across types of pizzas?</t>
+  </si>
+  <si>
+    <t>due to OWA but CWA question</t>
+  </si>
+  <si>
+    <t>sample sentence "From which nation is American pizza?", which is not in the Pizza CQ. Also, the template should have had two classes. Rewording it into "Where does american pizza come from?" then where PC1 EC1 PC1? No match either. Or American pizza originates in which country? EC1 PC1 EC2. still no match</t>
+  </si>
+  <si>
+    <t>B8 and B9 are variants of the same question</t>
+  </si>
+  <si>
+    <t>observations:</t>
+  </si>
+  <si>
+    <t>Which EC1 does not PC1 EC2</t>
+  </si>
+  <si>
+    <t>What EC1 PC1 not EC2</t>
+  </si>
+  <si>
+    <t>Which types are disjoint from EC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">based on the Pizza sentence "Which pizza contains no mushroom?". More sensible english would be "which pizza does not contain mushroom?" </t>
+  </si>
+  <si>
+    <t>sample CQ is not in the Pizza CQ set ("Which are the pizzas that have mozzarella topping but not have meat topping?") Which pizzas do have mozarrela topping but do not have meat as topping? The 'not' is not well catered for in the CQs. Tehre's "awo_5.Is there an animal that does not drink water?" but that negation was the only one and so didn't end up as CQ pattern, so not in CLaRO either. extended version of R1h. so, need to extend 90.</t>
+  </si>
+  <si>
+    <t>R1h, B10, and awo_5 are of the same type, with b10 a bit extended</t>
+  </si>
+  <si>
+    <t>B2 adb B3: sample question does not match theit own template</t>
+  </si>
+  <si>
+    <t>sample sentence given is also not in the Pizza CQ set ("Are vegetarian pizza and non-vegetarian pizza disjoint?"). Amounts to the same as stuff_04 Can a solution be a pure stuff? Could be reworded partially into the disjoint one (CLaRO template 92), but not 100% equivalent</t>
+  </si>
+  <si>
+    <t>from CQ "Do pizzas have different values of size?, which is not in the Pizza QC set, but there is a "Do pizzas come in different sizes?". Chunking something alike PC1 EC1 PC1 EC2 of EC3; or chunking the latter: PC1 EC1 PC1 in EC2?  there is a PC1 EC1 PC1 EC2 (number 29)</t>
+  </si>
+  <si>
+    <t>Claro template</t>
+  </si>
+  <si>
+    <t>AutoChunk then CLaRO template number</t>
+  </si>
+  <si>
+    <t>claro</t>
+  </si>
+  <si>
+    <t>Ren</t>
+  </si>
+  <si>
+    <t>bezerra</t>
+  </si>
+  <si>
+    <t>SetA</t>
+  </si>
+  <si>
+    <t>SetB</t>
+  </si>
+  <si>
+    <t>Ren's templates</t>
+  </si>
+  <si>
+    <t>Bezerra's templates</t>
+  </si>
+  <si>
+    <t>SetC</t>
+  </si>
+  <si>
+    <t>B4,B5</t>
+  </si>
+  <si>
+    <t>B11,B12</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>Bezerra</t>
+  </si>
+  <si>
+    <t>CLaRO</t>
+  </si>
+  <si>
+    <t>Match (direct or later)</t>
+  </si>
+  <si>
+    <t>failure</t>
+  </si>
+  <si>
+    <t>ClaRO</t>
+  </si>
+  <si>
+    <t>valid CQs</t>
+  </si>
+  <si>
+    <t>70.70a,70b</t>
+  </si>
+  <si>
+    <t>22 first Q</t>
+  </si>
+  <si>
+    <t>pct coverage over valid CQs</t>
+  </si>
+  <si>
+    <t>not a CQ</t>
+  </si>
+  <si>
+    <t>alignment</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;R&quot;#,##0_);[Red]\(&quot;R&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2397,8 +2839,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2440,6 +2927,18 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -2478,7 +2977,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="184">
+  <cellStyleXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2663,8 +3162,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2752,11 +3254,54 @@
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="12" fillId="7" borderId="0" xfId="144" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="12" fillId="7" borderId="0" xfId="144" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="184">
+  <cellStyles count="187">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2933,6 +3478,9 @@
     <cellStyle name="Followed Hyperlink" xfId="181" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="144" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
@@ -2944,6 +3492,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3268,61 +3824,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="2" width="64.83203125" customWidth="1"/>
-    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="63.5" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="30">
+      <c r="B2" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="B3" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="34">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="B4" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="34">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -3330,272 +3885,1242 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="4" t="s">
+    <row r="7" spans="1:2" ht="17">
+      <c r="A7" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17">
+      <c r="A8" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="34">
+      <c r="A9" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17">
+      <c r="A10" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17">
+      <c r="A11" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="17">
+      <c r="A12" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="17">
+      <c r="A13" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="17">
+      <c r="A14" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="17">
+      <c r="A15" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+    </row>
+    <row r="18" spans="1:2" ht="17">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="17">
+      <c r="A19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="136">
+      <c r="A20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="17">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="34">
+      <c r="A22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="17">
+      <c r="A23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="17">
+      <c r="A24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:2" ht="17">
+      <c r="A28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="28">
+      <c r="A29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="34">
+      <c r="A30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="17">
+      <c r="A31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="34">
+      <c r="A32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="17">
+      <c r="A33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="17">
+      <c r="A34" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="17">
+      <c r="A35" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="1:2" ht="17">
+      <c r="A39" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="17">
+      <c r="A40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="102">
+      <c r="A41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="34">
+      <c r="A42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="17">
+      <c r="A43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="17">
+      <c r="A44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="17">
+      <c r="A45" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="17">
+      <c r="A46" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="17">
+      <c r="A47" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="17">
+      <c r="A48" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="17">
+      <c r="A49" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="17">
+      <c r="A50" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="17">
+      <c r="A51" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="17">
+      <c r="A52" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="17">
+      <c r="A53" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="17">
+      <c r="A54" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="13"/>
+      <c r="B55" s="13"/>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="13"/>
+      <c r="B56" s="13"/>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="13"/>
+      <c r="B57" s="13"/>
+    </row>
+    <row r="58" spans="1:2" ht="17">
+      <c r="A58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="17">
+      <c r="A59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="51">
+      <c r="A60" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="17">
+      <c r="A61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="17">
+      <c r="A62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="17">
+      <c r="A63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="17">
+      <c r="A64" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="17">
+      <c r="A65" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="13"/>
+      <c r="B66" s="13"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B31" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B29" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B2" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="16.1640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="59.83203125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="18"/>
+    <col min="4" max="4" width="8.83203125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="47.1640625" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" customWidth="1"/>
+    <col min="7" max="7" width="36" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17">
+      <c r="A2" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="F2">
+        <v>66</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="I2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16" customHeight="1">
+      <c r="A3" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="F3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" t="s">
+        <v>487</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="I3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="34">
+      <c r="A4" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="F4">
+        <v>31</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="I4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17">
+      <c r="A5" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="F5" s="18">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="G5" s="22"/>
+      <c r="H5" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="I5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17">
+      <c r="A6" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="F6">
+        <v>29</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="I6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17">
+      <c r="A7" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="F7">
+        <v>12</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="I7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17">
+      <c r="A8" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17">
+      <c r="A9" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="F9">
+        <v>29</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17">
+      <c r="A10" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="F10" t="s">
+        <v>301</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="I10" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="F11">
+        <v>21</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="I11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="17">
+      <c r="A12" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="F12">
+        <v>22</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="I12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17">
+      <c r="A13" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="F13" t="s">
+        <v>311</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="I13" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="17">
+      <c r="A14" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="F14" t="s">
+        <v>305</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="I14" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="17">
+      <c r="A15" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="F15" t="s">
+        <v>305</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="I15" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="17">
+      <c r="A16" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="G16" t="s">
+        <v>486</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>480</v>
+      </c>
+      <c r="I16" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="17">
+      <c r="A17" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" t="s">
+        <v>485</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="I17">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="17">
+      <c r="A18" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="F18">
+        <v>53</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="I18">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="17">
+      <c r="A19" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="F19" t="s">
+        <v>489</v>
+      </c>
+      <c r="G19" t="s">
+        <v>479</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="I19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="17">
+      <c r="A20" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="F20" t="s">
+        <v>489</v>
+      </c>
+      <c r="G20" t="s">
+        <v>479</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="I20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="17">
+      <c r="A21" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" t="s">
+        <v>484</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="I21">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="34">
+      <c r="A22" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="F22" s="24">
+        <v>42</v>
+      </c>
+      <c r="G22" t="s">
+        <v>483</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>480</v>
+      </c>
+      <c r="I22" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="17">
+      <c r="A23" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" t="s">
+        <v>490</v>
+      </c>
+      <c r="H23" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="I23">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="17">
+      <c r="A24" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="F24">
+        <v>38</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="I24">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="17">
+      <c r="A25" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="F25">
+        <v>38</v>
+      </c>
+      <c r="H25" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="I25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="E27" t="s">
+        <v>491</v>
+      </c>
+      <c r="H27" s="28" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="E28" t="s">
+        <v>493</v>
+      </c>
+      <c r="F28">
+        <f>24-F29-F30</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
+      <c r="H28" t="s">
+        <v>493</v>
+      </c>
+      <c r="I28">
+        <f>24-I29-I30</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="E29" t="s">
+        <v>492</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="H29" t="s">
+        <v>492</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="E30" t="s">
+        <v>494</v>
+      </c>
+      <c r="F30">
+        <f>COUNTIF(F2:F25,"n")</f>
+        <v>4</v>
+      </c>
+      <c r="H30" t="s">
+        <v>494</v>
+      </c>
+      <c r="I30">
+        <f>COUNTIF(I2:I25,"n")</f>
         <v>0</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="30">
-      <c r="A36" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B40" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B43" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>66</v>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="E32" t="s">
+        <v>496</v>
+      </c>
+      <c r="F32">
+        <f>F28/24*100</f>
+        <v>70.833333333333343</v>
+      </c>
+      <c r="H32" t="s">
+        <v>496</v>
+      </c>
+      <c r="I32">
+        <f>I28/24*100</f>
+        <v>91.666666666666657</v>
+      </c>
+    </row>
+    <row r="33" spans="5:9">
+      <c r="E33" t="s">
+        <v>497</v>
+      </c>
+      <c r="F33">
+        <f>(F28+F29)/24*100</f>
+        <v>83.333333333333343</v>
+      </c>
+      <c r="H33" t="s">
+        <v>497</v>
+      </c>
+      <c r="I33">
+        <f>(I28+I29)/24*100</f>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3609,16 +5134,358 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="2" width="64.83203125" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="34">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17">
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17">
+      <c r="A8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17">
+      <c r="A9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17">
+      <c r="A10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17">
+      <c r="A11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:2" ht="17">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="17">
+      <c r="A16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="17">
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="17">
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="17">
+      <c r="A19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="17">
+      <c r="A20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="17">
+      <c r="A21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="17">
+      <c r="A22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="17">
+      <c r="A23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="17">
+      <c r="A24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="17">
+      <c r="A25" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="17">
+      <c r="A26" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="17">
+      <c r="A27" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="17">
+      <c r="A28" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="17">
+      <c r="A32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="17">
+      <c r="A33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="17">
+      <c r="A34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="17">
+      <c r="A35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="34">
+      <c r="A36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="17">
+      <c r="A37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="17">
+      <c r="A38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="17">
+      <c r="A39" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="17">
+      <c r="A40" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="17">
+      <c r="A41" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="17">
+      <c r="A42" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="17">
+      <c r="A43" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="17">
+      <c r="A44" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H53" sqref="H53"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="9.6640625" customWidth="1"/>
     <col min="2" max="2" width="47.1640625" customWidth="1"/>
@@ -3651,7 +5518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="17">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -3671,7 +5538,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="17">
       <c r="A3" s="3" t="s">
         <v>25</v>
       </c>
@@ -3691,7 +5558,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30">
+    <row r="4" spans="1:7" ht="34">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -3711,10 +5578,10 @@
         <v>59</v>
       </c>
       <c r="G4" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="34">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
@@ -3731,13 +5598,13 @@
         <v>462</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G5" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="34">
       <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
@@ -3754,13 +5621,13 @@
         <v>19</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G6" s="21" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30">
+    <row r="7" spans="1:7" ht="34">
       <c r="A7" s="3" t="s">
         <v>40</v>
       </c>
@@ -3777,13 +5644,13 @@
         <v>463</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G7" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17">
       <c r="A8" s="5" t="s">
         <v>41</v>
       </c>
@@ -3800,13 +5667,13 @@
         <v>464</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G8" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17">
       <c r="A9" s="5" t="s">
         <v>42</v>
       </c>
@@ -3823,13 +5690,13 @@
         <v>31</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G9" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17">
       <c r="A10" s="5" t="s">
         <v>43</v>
       </c>
@@ -3849,7 +5716,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="17">
       <c r="A11" s="5" t="s">
         <v>44</v>
       </c>
@@ -3869,7 +5736,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="17">
       <c r="A12" s="5" t="s">
         <v>45</v>
       </c>
@@ -3889,7 +5756,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="17">
       <c r="A13" s="5" t="s">
         <v>46</v>
       </c>
@@ -3906,13 +5773,13 @@
         <v>35</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G13" s="22" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="17">
       <c r="A14" s="5" t="s">
         <v>47</v>
       </c>
@@ -3929,13 +5796,13 @@
         <v>36</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G14" s="22" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="17">
       <c r="A15" s="3" t="s">
         <v>52</v>
       </c>
@@ -3955,7 +5822,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="17">
       <c r="A16" s="5" t="s">
         <v>53</v>
       </c>
@@ -3975,7 +5842,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="17">
       <c r="A17" s="5" t="s">
         <v>54</v>
       </c>
@@ -3995,7 +5862,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="17">
       <c r="A18" s="5" t="s">
         <v>55</v>
       </c>
@@ -4015,7 +5882,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="17">
       <c r="A19" s="5" t="s">
         <v>56</v>
       </c>
@@ -4035,7 +5902,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="17">
       <c r="A20" s="5" t="s">
         <v>57</v>
       </c>
@@ -4052,13 +5919,13 @@
         <v>467</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G20" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="17">
       <c r="A21" s="5" t="s">
         <v>58</v>
       </c>
@@ -4078,7 +5945,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" ht="17">
       <c r="A22" s="5" t="s">
         <v>71</v>
       </c>
@@ -4098,7 +5965,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="17">
       <c r="A23" s="5" t="s">
         <v>74</v>
       </c>
@@ -4121,7 +5988,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="17">
       <c r="A24" s="5" t="s">
         <v>75</v>
       </c>
@@ -4141,10 +6008,10 @@
         <v>59</v>
       </c>
       <c r="G24" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="17">
       <c r="A25" s="5" t="s">
         <v>76</v>
       </c>
@@ -4167,58 +6034,58 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" ht="17">
       <c r="A26" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="B26" t="s">
+        <v>519</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>569</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>578</v>
+      </c>
+      <c r="G26" s="31" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="17">
+      <c r="A27" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>520</v>
       </c>
-      <c r="C26" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="31" t="s">
+      <c r="C27" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="31" t="s">
         <v>570</v>
       </c>
-      <c r="F26" s="18" t="s">
-        <v>579</v>
-      </c>
-      <c r="G26" s="31" t="s">
+      <c r="F27" s="18" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="B27" t="s">
-        <v>521</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="31" t="s">
-        <v>571</v>
-      </c>
-      <c r="F27" s="18" t="s">
+      <c r="G27" s="31" t="s">
         <v>581</v>
-      </c>
-      <c r="G27" s="31" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B28" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C28" s="18" t="s">
         <v>14</v>
@@ -4227,21 +6094,21 @@
         <v>14</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F28" s="31" t="s">
+        <v>582</v>
+      </c>
+      <c r="G28" s="31" t="s">
         <v>583</v>
-      </c>
-      <c r="G28" s="31" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B29" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>14</v>
@@ -4250,21 +6117,21 @@
         <v>14</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F29" s="18">
         <v>24</v>
       </c>
       <c r="G29" s="31" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B30" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>14</v>
@@ -4273,21 +6140,21 @@
         <v>14</v>
       </c>
       <c r="E30" s="31" t="s">
+        <v>589</v>
+      </c>
+      <c r="F30" s="18" t="s">
         <v>590</v>
       </c>
-      <c r="F30" s="18" t="s">
-        <v>591</v>
-      </c>
       <c r="G30" s="31" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B31" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C31" s="18" t="s">
         <v>14</v>
@@ -4296,7 +6163,7 @@
         <v>14</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F31" s="18" t="s">
         <v>311</v>
@@ -4305,10 +6172,10 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B32" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C32" s="18" t="s">
         <v>14</v>
@@ -4317,7 +6184,7 @@
         <v>14</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F32" s="18" t="s">
         <v>312</v>
@@ -4326,10 +6193,10 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B33" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C33" s="18" t="s">
         <v>14</v>
@@ -4339,13 +6206,13 @@
       </c>
       <c r="E33" s="31"/>
       <c r="F33" s="34" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G33" s="31" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H33" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="M33" t="s">
         <v>311</v>
@@ -4353,10 +6220,10 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B34" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C34" s="18" t="s">
         <v>14</v>
@@ -4366,13 +6233,13 @@
       </c>
       <c r="E34" s="31"/>
       <c r="F34" s="34" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G34" s="31" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H34" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="M34">
         <v>81</v>
@@ -4380,10 +6247,10 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B35" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C35" s="18" t="s">
         <v>14</v>
@@ -4393,13 +6260,13 @@
       </c>
       <c r="E35" s="31"/>
       <c r="F35" s="34" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G35" s="31" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H35" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M35">
         <v>81</v>
@@ -4407,10 +6274,10 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B36" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C36" s="18" t="s">
         <v>14</v>
@@ -4419,7 +6286,7 @@
         <v>14</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F36" s="18" t="s">
         <v>59</v>
@@ -4428,10 +6295,10 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B37" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>14</v>
@@ -4440,7 +6307,7 @@
         <v>14</v>
       </c>
       <c r="E37" s="31" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F37" s="18">
         <v>66</v>
@@ -4449,10 +6316,10 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B38" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>14</v>
@@ -4461,21 +6328,21 @@
         <v>14</v>
       </c>
       <c r="E38" s="31" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G38" s="31" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B39" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C39" s="18" t="s">
         <v>14</v>
@@ -4484,21 +6351,21 @@
         <v>14</v>
       </c>
       <c r="E39" s="31" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F39" s="18" t="s">
+        <v>585</v>
+      </c>
+      <c r="G39" s="31" t="s">
         <v>586</v>
-      </c>
-      <c r="G39" s="31" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B40" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C40" s="18" t="s">
         <v>14</v>
@@ -4507,21 +6374,21 @@
         <v>14</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G40" s="31" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B41" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C41" s="18" t="s">
         <v>14</v>
@@ -4531,13 +6398,13 @@
       </c>
       <c r="E41" s="31"/>
       <c r="F41" s="34" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G41" s="31" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H41" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M41">
         <v>81</v>
@@ -4545,10 +6412,10 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B42" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C42" s="18" t="s">
         <v>14</v>
@@ -4558,13 +6425,13 @@
       </c>
       <c r="E42" s="31"/>
       <c r="F42" s="34" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G42" s="33" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H42" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="M42">
         <v>81</v>
@@ -4572,10 +6439,10 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B43" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C43" s="18" t="s">
         <v>14</v>
@@ -4585,18 +6452,18 @@
       </c>
       <c r="E43" s="31"/>
       <c r="F43" s="34" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G43" s="31" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B44" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C44" s="18" t="s">
         <v>14</v>
@@ -4606,18 +6473,18 @@
       </c>
       <c r="E44" s="31"/>
       <c r="F44" s="34" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G44" s="31" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B45" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C45" s="18" t="s">
         <v>14</v>
@@ -4627,18 +6494,18 @@
       </c>
       <c r="E45" s="31"/>
       <c r="F45" s="34" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G45" s="31" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B46" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C46" s="18" t="s">
         <v>14</v>
@@ -4648,61 +6515,61 @@
       </c>
       <c r="E46" s="31"/>
       <c r="F46" s="34" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G46" s="33" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="48" spans="1:14">
-      <c r="F48" s="37" t="s">
-        <v>562</v>
-      </c>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37" t="s">
+      <c r="F48" s="49" t="s">
+        <v>561</v>
+      </c>
+      <c r="G48" s="49"/>
+      <c r="H48" s="49"/>
+      <c r="I48" s="49" t="s">
+        <v>563</v>
+      </c>
+      <c r="J48" s="49"/>
+      <c r="K48" s="49"/>
+      <c r="L48" s="49" t="s">
         <v>564</v>
       </c>
-      <c r="J48" s="37"/>
-      <c r="K48" s="37"/>
-      <c r="L48" s="37" t="s">
-        <v>565</v>
-      </c>
-      <c r="M48" s="37"/>
-      <c r="N48" s="37"/>
+      <c r="M48" s="49"/>
+      <c r="N48" s="49"/>
     </row>
     <row r="49" spans="5:14">
       <c r="F49" s="18" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G49" t="s">
+        <v>512</v>
+      </c>
+      <c r="H49" t="s">
         <v>513</v>
       </c>
-      <c r="H49" t="s">
-        <v>514</v>
-      </c>
       <c r="I49" s="18" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="J49" t="s">
+        <v>512</v>
+      </c>
+      <c r="K49" t="s">
         <v>513</v>
       </c>
-      <c r="K49" t="s">
-        <v>514</v>
-      </c>
       <c r="L49" s="18" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M49" t="s">
+        <v>512</v>
+      </c>
+      <c r="N49" t="s">
         <v>513</v>
-      </c>
-      <c r="N49" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="50" spans="5:14">
       <c r="E50" s="31" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F50" s="18">
         <v>20</v>
@@ -4728,7 +6595,7 @@
     </row>
     <row r="51" spans="5:14">
       <c r="E51" s="31" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F51" s="18">
         <v>5</v>
@@ -4757,7 +6624,7 @@
     </row>
     <row r="52" spans="5:14">
       <c r="E52" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F52" s="18">
         <v>5</v>
@@ -4796,7 +6663,7 @@
     </row>
     <row r="53" spans="5:14">
       <c r="E53" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F53" s="18">
         <f>F52+3</f>
@@ -4837,7 +6704,7 @@
     </row>
     <row r="54" spans="5:14">
       <c r="E54" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F54" s="18">
         <v>7</v>
@@ -4876,7 +6743,7 @@
     </row>
     <row r="55" spans="5:14">
       <c r="E55" s="31" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F55" s="18">
         <v>6</v>
@@ -4907,7 +6774,7 @@
     </row>
     <row r="56" spans="5:14">
       <c r="E56" s="31" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I56">
         <v>5</v>
@@ -4927,7 +6794,7 @@
     </row>
     <row r="57" spans="5:14">
       <c r="E57" s="31" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I57">
         <v>4</v>
@@ -4949,7 +6816,7 @@
     </row>
     <row r="58" spans="5:14">
       <c r="E58" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I58">
         <f>I52+I56</f>
@@ -4978,7 +6845,7 @@
     </row>
     <row r="59" spans="5:14">
       <c r="E59" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I59">
         <f>I58+6</f>
@@ -5007,7 +6874,7 @@
     </row>
     <row r="60" spans="5:14">
       <c r="E60" s="31" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I60">
         <f>I54</f>
@@ -5036,7 +6903,7 @@
     </row>
     <row r="61" spans="5:14">
       <c r="E61" s="31" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="L61">
         <f>L59+F55</f>
@@ -5067,1326 +6934,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B66"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G135"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A70" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="16.1640625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="63.5" style="12" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="30">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="30">
-      <c r="A9" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="120">
-      <c r="A20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="30">
-      <c r="A22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="30">
-      <c r="A30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="30">
-      <c r="A32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="90">
-      <c r="A41" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="30">
-      <c r="A42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="B45" s="16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B46" s="16" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="B47" s="16" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="13"/>
-      <c r="B55" s="13"/>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="13"/>
-      <c r="B56" s="13"/>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="13"/>
-      <c r="B57" s="13"/>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="45">
-      <c r="A60" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B64" s="15" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="B65" s="15" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="13"/>
-      <c r="B66" s="13"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B31" r:id="rId1"/>
-    <hyperlink ref="B29" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B3" r:id="rId4"/>
-    <hyperlink ref="B2" r:id="rId5"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I33"/>
-  <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="16.1640625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="59.83203125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="18"/>
-    <col min="4" max="4" width="8.83203125" style="18" customWidth="1"/>
-    <col min="5" max="5" width="47.1640625" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" customWidth="1"/>
-    <col min="7" max="7" width="36" customWidth="1"/>
-    <col min="8" max="8" width="23.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="16">
-      <c r="A2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="F2">
-        <v>66</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="I2">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="16" customHeight="1">
-      <c r="A3" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>473</v>
-      </c>
-      <c r="F3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" t="s">
-        <v>488</v>
-      </c>
-      <c r="H3" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="I3">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="30">
-      <c r="A4" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="F4">
-        <v>31</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="I4">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="F5" s="18">
-        <v>16</v>
-      </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="I5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="F6">
-        <v>29</v>
-      </c>
-      <c r="H6" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="I6">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="F7">
-        <v>12</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="I7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="I8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="F9">
-        <v>29</v>
-      </c>
-      <c r="H9" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="I9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="F10" t="s">
-        <v>301</v>
-      </c>
-      <c r="H10" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="I10" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="F11">
-        <v>21</v>
-      </c>
-      <c r="H11" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="I11">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="F12">
-        <v>22</v>
-      </c>
-      <c r="H12" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="I12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>478</v>
-      </c>
-      <c r="F13" t="s">
-        <v>311</v>
-      </c>
-      <c r="H13" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="I13" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="F14" t="s">
-        <v>305</v>
-      </c>
-      <c r="H14" s="26" t="s">
-        <v>231</v>
-      </c>
-      <c r="I14" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="F15" t="s">
-        <v>305</v>
-      </c>
-      <c r="H15" s="26" t="s">
-        <v>231</v>
-      </c>
-      <c r="I15" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>453</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="G16" t="s">
-        <v>487</v>
-      </c>
-      <c r="H16" s="26" t="s">
-        <v>481</v>
-      </c>
-      <c r="I16" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>454</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" t="s">
-        <v>486</v>
-      </c>
-      <c r="H17" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="I17">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>466</v>
-      </c>
-      <c r="F18">
-        <v>53</v>
-      </c>
-      <c r="H18" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="I18">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>455</v>
-      </c>
-      <c r="F19" t="s">
-        <v>490</v>
-      </c>
-      <c r="G19" t="s">
-        <v>480</v>
-      </c>
-      <c r="H19" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="I19">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>455</v>
-      </c>
-      <c r="F20" t="s">
-        <v>490</v>
-      </c>
-      <c r="G20" t="s">
-        <v>480</v>
-      </c>
-      <c r="H20" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="I20">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" t="s">
-        <v>485</v>
-      </c>
-      <c r="H21" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="I21">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="30">
-      <c r="A22" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>482</v>
-      </c>
-      <c r="F22" s="24">
-        <v>42</v>
-      </c>
-      <c r="G22" t="s">
-        <v>484</v>
-      </c>
-      <c r="H22" s="26" t="s">
-        <v>481</v>
-      </c>
-      <c r="I22" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="G23" t="s">
-        <v>491</v>
-      </c>
-      <c r="H23" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="I23">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>457</v>
-      </c>
-      <c r="F24">
-        <v>38</v>
-      </c>
-      <c r="H24" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="I24">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>457</v>
-      </c>
-      <c r="F25">
-        <v>38</v>
-      </c>
-      <c r="H25" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="I25">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="E27" t="s">
-        <v>492</v>
-      </c>
-      <c r="H27" s="28" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="E28" t="s">
-        <v>494</v>
-      </c>
-      <c r="F28">
-        <f>24-F29-F30</f>
-        <v>17</v>
-      </c>
-      <c r="H28" t="s">
-        <v>494</v>
-      </c>
-      <c r="I28">
-        <f>24-I29-I30</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="E29" t="s">
-        <v>493</v>
-      </c>
-      <c r="F29">
-        <v>3</v>
-      </c>
-      <c r="H29" t="s">
-        <v>493</v>
-      </c>
-      <c r="I29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="E30" t="s">
-        <v>495</v>
-      </c>
-      <c r="F30">
-        <f>COUNTIF(F2:F25,"n")</f>
-        <v>4</v>
-      </c>
-      <c r="H30" t="s">
-        <v>495</v>
-      </c>
-      <c r="I30">
-        <f>COUNTIF(I2:I25,"n")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="E32" t="s">
-        <v>497</v>
-      </c>
-      <c r="F32">
-        <f>F28/24*100</f>
-        <v>70.833333333333343</v>
-      </c>
-      <c r="H32" t="s">
-        <v>497</v>
-      </c>
-      <c r="I32">
-        <f>I28/24*100</f>
-        <v>91.666666666666657</v>
-      </c>
-    </row>
-    <row r="33" spans="5:9">
-      <c r="E33" t="s">
-        <v>498</v>
-      </c>
-      <c r="F33">
-        <f>(F28+F29)/24*100</f>
-        <v>83.333333333333343</v>
-      </c>
-      <c r="H33" t="s">
-        <v>498</v>
-      </c>
-      <c r="I33">
-        <f>(I28+I29)/24*100</f>
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G132"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="59.5" customWidth="1"/>
     <col min="7" max="7" width="31.1640625" customWidth="1"/>
@@ -7092,10 +7648,10 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="29" t="s">
+        <v>514</v>
+      </c>
+      <c r="B88" s="29" t="s">
         <v>515</v>
-      </c>
-      <c r="B88" s="29" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -7441,15 +7997,39 @@
       </c>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="29">
+      <c r="A132" s="44">
         <v>90</v>
       </c>
-      <c r="B132" s="30" t="s">
+      <c r="B132" s="45" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="44">
+        <v>91</v>
+      </c>
+      <c r="B133" s="45" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="44">
+        <v>92</v>
+      </c>
+      <c r="B134" s="45" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="29">
+        <v>93</v>
+      </c>
+      <c r="B135" s="30" t="s">
         <v>252</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:A106">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A106">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7463,14 +8043,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H132"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:H135"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView topLeftCell="A115" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E136" sqref="E136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="47.83203125" customWidth="1"/>
     <col min="8" max="8" width="36" customWidth="1"/>
@@ -7963,9 +8543,7 @@
       <c r="B61" s="23" t="s">
         <v>409</v>
       </c>
-      <c r="H61" s="11" t="s">
-        <v>475</v>
-      </c>
+      <c r="H61" s="11"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
@@ -8097,10 +8675,10 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="29" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B78" s="29" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -8176,368 +8754,392 @@
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="29">
-        <v>90</v>
-      </c>
-      <c r="B88" s="30" t="s">
-        <v>518</v>
+      <c r="A88" s="47">
+        <v>91</v>
+      </c>
+      <c r="B88" s="48" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89">
-        <v>66</v>
-      </c>
-      <c r="B89" s="23" t="s">
-        <v>419</v>
+      <c r="A89" s="29">
+        <v>93</v>
+      </c>
+      <c r="B89" s="30" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>333</v>
+        <v>419</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B91" s="23" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B92" s="23" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B93" s="23" t="s">
-        <v>418</v>
+        <v>363</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B94" s="23" t="s">
-        <v>364</v>
+        <v>418</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B95" s="23" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B96" s="23" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
+        <v>64</v>
+      </c>
+      <c r="B97" s="23" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98">
         <v>67</v>
       </c>
-      <c r="B97" s="23" t="s">
+      <c r="B98" s="23" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
         <v>306</v>
       </c>
-      <c r="B98" s="23" t="s">
+      <c r="B99" s="23" t="s">
         <v>343</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99">
-        <v>70</v>
-      </c>
-      <c r="B99" s="23" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100">
+        <v>70</v>
+      </c>
+      <c r="B100" s="23" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101">
         <v>71</v>
       </c>
-      <c r="B100" s="23" t="s">
+      <c r="B101" s="23" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
         <v>305</v>
       </c>
-      <c r="B101" s="23" t="s">
+      <c r="B102" s="23" t="s">
         <v>342</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102">
-        <v>72</v>
-      </c>
-      <c r="B102" s="23" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B103" s="23" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="B104" s="23" t="s">
-        <v>380</v>
+        <v>424</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105">
+        <v>11</v>
+      </c>
+      <c r="B105" s="23" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106">
         <v>76</v>
       </c>
-      <c r="B105" s="23" t="s">
+      <c r="B106" s="23" t="s">
         <v>427</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" t="s">
-        <v>308</v>
-      </c>
-      <c r="B106" s="23" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B107" s="23" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
+        <v>309</v>
+      </c>
+      <c r="B108" s="23" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
         <v>310</v>
       </c>
-      <c r="B108" s="23" t="s">
+      <c r="B109" s="23" t="s">
         <v>428</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109">
-        <v>73</v>
-      </c>
-      <c r="B109" s="23" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110">
+        <v>73</v>
+      </c>
+      <c r="B110" s="23" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111">
         <v>74</v>
       </c>
-      <c r="B110" s="23" t="s">
+      <c r="B111" s="23" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
-      <c r="A111" t="s">
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
         <v>307</v>
       </c>
-      <c r="B111" s="23" t="s">
+      <c r="B112" s="23" t="s">
         <v>346</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112">
-        <v>81</v>
-      </c>
-      <c r="B112" s="23" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113">
+        <v>81</v>
+      </c>
+      <c r="B113" s="23" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114">
         <v>82</v>
       </c>
-      <c r="B113" s="23" t="s">
+      <c r="B114" s="23" t="s">
         <v>431</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" t="s">
-        <v>315</v>
-      </c>
-      <c r="B114" s="23" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
+        <v>315</v>
+      </c>
+      <c r="B115" s="23" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
         <v>316</v>
       </c>
-      <c r="B115" s="23" t="s">
+      <c r="B116" s="23" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
-      <c r="A116">
+    <row r="117" spans="1:2">
+      <c r="A117">
         <v>83</v>
       </c>
-      <c r="B116" s="23" t="s">
+      <c r="B117" s="23" t="s">
         <v>445</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" t="s">
-        <v>311</v>
-      </c>
-      <c r="B117" s="23" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
+        <v>311</v>
+      </c>
+      <c r="B118" s="23" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
         <v>314</v>
       </c>
-      <c r="B118" s="23" t="s">
+      <c r="B119" s="23" t="s">
         <v>366</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119">
-        <v>78</v>
-      </c>
-      <c r="B119" s="23" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B120" s="23" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B121" s="23" t="s">
-        <v>429</v>
+        <v>365</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B122" s="23" t="s">
-        <v>323</v>
+        <v>429</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B123" s="23" t="s">
-        <v>433</v>
+        <v>323</v>
       </c>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" t="s">
-        <v>313</v>
-      </c>
-      <c r="B124" s="23" t="s">
-        <v>350</v>
+      <c r="A124" s="47">
+        <v>90</v>
+      </c>
+      <c r="B124" s="48" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B125" s="23" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126">
-        <v>88</v>
+      <c r="A126" t="s">
+        <v>313</v>
       </c>
       <c r="B126" s="23" t="s">
-        <v>437</v>
+        <v>350</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B127" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128">
-        <v>89</v>
-      </c>
-      <c r="B128" s="23" t="s">
-        <v>438</v>
+      <c r="A128" s="47">
+        <v>92</v>
+      </c>
+      <c r="B128" s="48" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="B129" s="23" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="130" spans="1:2">
-      <c r="A130" t="s">
-        <v>317</v>
+      <c r="A130">
+        <v>87</v>
       </c>
       <c r="B130" s="23" t="s">
-        <v>352</v>
+        <v>435</v>
       </c>
     </row>
     <row r="131" spans="1:2">
-      <c r="A131" t="s">
-        <v>447</v>
+      <c r="A131">
+        <v>89</v>
       </c>
       <c r="B131" s="23" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132">
+        <v>7</v>
+      </c>
+      <c r="B132" s="23" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>317</v>
+      </c>
+      <c r="B133" s="23" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>447</v>
+      </c>
+      <c r="B134" s="23" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135">
         <v>86</v>
       </c>
-      <c r="B132" s="23" t="s">
+      <c r="B135" s="23" t="s">
         <v>351</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B130">
-    <sortCondition ref="B1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B135">
+    <sortCondition ref="B75"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -8547,4 +9149,2234 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:I49"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="28.5" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="39" t="s">
+        <v>627</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>628</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>629</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>632</v>
+      </c>
+      <c r="E1" s="39"/>
+      <c r="F1" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="17"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="38">
+        <v>1</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>601</v>
+      </c>
+      <c r="C2">
+        <v>81</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>619</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>644</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>620</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>602</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>633</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>621</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>603</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>622</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>604</v>
+      </c>
+      <c r="C6" t="s">
+        <v>635</v>
+      </c>
+      <c r="D6" t="s">
+        <v>636</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>623</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>605</v>
+      </c>
+      <c r="C7">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>631</v>
+      </c>
+      <c r="F7" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>624</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>606</v>
+      </c>
+      <c r="C8">
+        <v>88</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>625</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>607</v>
+      </c>
+      <c r="C9" t="s">
+        <v>634</v>
+      </c>
+      <c r="D9" t="s">
+        <v>637</v>
+      </c>
+      <c r="F9" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>626</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>608</v>
+      </c>
+      <c r="C10">
+        <v>90</v>
+      </c>
+      <c r="D10" t="s">
+        <v>695</v>
+      </c>
+      <c r="F10" t="s">
+        <v>686</v>
+      </c>
+      <c r="G10" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="38">
+        <v>2</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>609</v>
+      </c>
+      <c r="C11">
+        <v>60</v>
+      </c>
+      <c r="D11" t="s">
+        <v>681</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="38">
+        <v>3</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>610</v>
+      </c>
+      <c r="C12">
+        <v>70</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="38">
+        <v>4</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>611</v>
+      </c>
+      <c r="C13">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="38">
+        <v>5</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>612</v>
+      </c>
+      <c r="C14">
+        <v>81</v>
+      </c>
+      <c r="D14" t="s">
+        <v>638</v>
+      </c>
+      <c r="F14" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16" customHeight="1">
+      <c r="A15" s="38">
+        <v>6</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>613</v>
+      </c>
+      <c r="C15">
+        <v>81</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>679</v>
+      </c>
+      <c r="E15" s="33"/>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="38">
+        <v>7</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>614</v>
+      </c>
+      <c r="C16" t="s">
+        <v>310</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>639</v>
+      </c>
+      <c r="E16" s="33"/>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="38">
+        <v>8</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>615</v>
+      </c>
+      <c r="C17">
+        <v>77</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="38">
+        <v>9</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>616</v>
+      </c>
+      <c r="C18">
+        <v>72</v>
+      </c>
+      <c r="D18" t="s">
+        <v>640</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="38">
+        <v>10</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>617</v>
+      </c>
+      <c r="C19" t="s">
+        <v>301</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="38">
+        <v>11</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>618</v>
+      </c>
+      <c r="C20">
+        <v>84</v>
+      </c>
+      <c r="D20" t="s">
+        <v>641</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="38">
+        <v>12</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>642</v>
+      </c>
+      <c r="C21" t="s">
+        <v>630</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>700</v>
+      </c>
+      <c r="E21" s="33"/>
+      <c r="F21" t="s">
+        <v>686</v>
+      </c>
+      <c r="G21" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="38"/>
+      <c r="B22" s="37"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="38"/>
+      <c r="B23" s="37"/>
+      <c r="C23">
+        <f>COUNTIF(C2:C21,"no match")</f>
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>683</v>
+      </c>
+      <c r="E23">
+        <f>C23/19*100</f>
+        <v>5.2631578947368416</v>
+      </c>
+      <c r="F23" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="38"/>
+      <c r="B24" s="37"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="39" t="s">
+        <v>643</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>628</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>629</v>
+      </c>
+      <c r="D26" s="39" t="s">
+        <v>632</v>
+      </c>
+      <c r="E26" s="39"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>659</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>645</v>
+      </c>
+      <c r="C27">
+        <v>68</v>
+      </c>
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>660</v>
+      </c>
+      <c r="B28" s="41" t="s">
+        <v>646</v>
+      </c>
+      <c r="C28">
+        <v>15</v>
+      </c>
+      <c r="D28" t="s">
+        <v>673</v>
+      </c>
+      <c r="F28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>661</v>
+      </c>
+      <c r="B29" s="41" t="s">
+        <v>647</v>
+      </c>
+      <c r="C29" t="s">
+        <v>630</v>
+      </c>
+      <c r="D29" s="41" t="s">
+        <v>689</v>
+      </c>
+      <c r="E29" s="41"/>
+      <c r="F29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>662</v>
+      </c>
+      <c r="B30" s="41" t="s">
+        <v>648</v>
+      </c>
+      <c r="C30">
+        <v>22</v>
+      </c>
+      <c r="F30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>663</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>649</v>
+      </c>
+      <c r="C31">
+        <v>22</v>
+      </c>
+      <c r="F31" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>664</v>
+      </c>
+      <c r="B32" s="41" t="s">
+        <v>650</v>
+      </c>
+      <c r="C32">
+        <v>44</v>
+      </c>
+      <c r="D32" t="s">
+        <v>674</v>
+      </c>
+      <c r="F32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>665</v>
+      </c>
+      <c r="B33" s="41" t="s">
+        <v>651</v>
+      </c>
+      <c r="C33" t="s">
+        <v>635</v>
+      </c>
+      <c r="D33" t="s">
+        <v>675</v>
+      </c>
+      <c r="F33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>666</v>
+      </c>
+      <c r="B34" s="41" t="s">
+        <v>652</v>
+      </c>
+      <c r="C34">
+        <v>92</v>
+      </c>
+      <c r="D34" t="s">
+        <v>676</v>
+      </c>
+      <c r="F34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>667</v>
+      </c>
+      <c r="B35" s="41" t="s">
+        <v>653</v>
+      </c>
+      <c r="C35" t="s">
+        <v>630</v>
+      </c>
+      <c r="D35" t="s">
+        <v>699</v>
+      </c>
+      <c r="F35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>668</v>
+      </c>
+      <c r="B36" s="41" t="s">
+        <v>654</v>
+      </c>
+      <c r="C36" t="s">
+        <v>630</v>
+      </c>
+      <c r="D36" t="s">
+        <v>696</v>
+      </c>
+      <c r="F36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>669</v>
+      </c>
+      <c r="B37" s="41" t="s">
+        <v>655</v>
+      </c>
+      <c r="C37">
+        <v>24</v>
+      </c>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>670</v>
+      </c>
+      <c r="B38" s="41" t="s">
+        <v>656</v>
+      </c>
+      <c r="C38">
+        <v>24</v>
+      </c>
+      <c r="F38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>671</v>
+      </c>
+      <c r="B39" s="41" t="s">
+        <v>657</v>
+      </c>
+      <c r="C39">
+        <v>77</v>
+      </c>
+      <c r="D39" t="s">
+        <v>677</v>
+      </c>
+      <c r="F39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>672</v>
+      </c>
+      <c r="B40" s="41" t="s">
+        <v>658</v>
+      </c>
+      <c r="C40">
+        <v>22</v>
+      </c>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="C42">
+        <f>COUNTIF(C27:C40,"no match")</f>
+        <v>3</v>
+      </c>
+      <c r="D42" t="s">
+        <v>684</v>
+      </c>
+      <c r="E42">
+        <f>C42/14*100</f>
+        <v>21.428571428571427</v>
+      </c>
+      <c r="F42" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="C44">
+        <f>C23+C42</f>
+        <v>4</v>
+      </c>
+      <c r="D44" t="s">
+        <v>685</v>
+      </c>
+      <c r="E44">
+        <f>6/33*100</f>
+        <v>18.181818181818183</v>
+      </c>
+      <c r="F44" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="C46" s="43" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="D47" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="D48" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4">
+      <c r="D49" t="s">
+        <v>697</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA88FAA4-670E-5042-A2DA-14714ED4E1D5}">
+  <dimension ref="A1:U73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="H1" s="39" t="s">
+        <v>706</v>
+      </c>
+      <c r="I1" s="39" t="s">
+        <v>707</v>
+      </c>
+      <c r="J1" s="39" t="s">
+        <v>710</v>
+      </c>
+      <c r="K1" s="39" t="s">
+        <v>564</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="G2" s="43" t="s">
+        <v>713</v>
+      </c>
+      <c r="H2">
+        <v>24</v>
+      </c>
+      <c r="I2">
+        <v>20</v>
+      </c>
+      <c r="J2">
+        <v>21</v>
+      </c>
+      <c r="K2">
+        <f>SUM(H2:J2)</f>
+        <v>65</v>
+      </c>
+      <c r="Q2" s="39" t="s">
+        <v>704</v>
+      </c>
+      <c r="R2" s="39" t="s">
+        <v>703</v>
+      </c>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39" t="s">
+        <v>705</v>
+      </c>
+      <c r="U2" s="39" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="33">
+        <v>66</v>
+      </c>
+      <c r="C3" s="33">
+        <v>66</v>
+      </c>
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>723</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3">
+        <v>9</v>
+      </c>
+      <c r="K3">
+        <f>SUM(H3:J3)</f>
+        <v>14</v>
+      </c>
+      <c r="Q3" s="38">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>81</v>
+      </c>
+      <c r="T3" t="s">
+        <v>659</v>
+      </c>
+      <c r="U3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="33">
+        <v>80</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>719</v>
+      </c>
+      <c r="H4">
+        <f>H2-H3</f>
+        <v>24</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:K4" si="0">I2-I3</f>
+        <v>15</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>619</v>
+      </c>
+      <c r="T4" t="s">
+        <v>660</v>
+      </c>
+      <c r="U4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="33">
+        <v>31</v>
+      </c>
+      <c r="C5" s="33">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>716</v>
+      </c>
+      <c r="G5" s="43" t="s">
+        <v>704</v>
+      </c>
+      <c r="H5">
+        <f>$H$4-H8</f>
+        <v>6</v>
+      </c>
+      <c r="I5">
+        <f>$I$4-I8</f>
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <f>$J$4-J8</f>
+        <v>6</v>
+      </c>
+      <c r="K5">
+        <f>$K$4-K8</f>
+        <v>17</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>620</v>
+      </c>
+      <c r="R5" t="s">
+        <v>7</v>
+      </c>
+      <c r="T5" t="s">
+        <v>661</v>
+      </c>
+      <c r="U5" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="46">
+        <v>16</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="D6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="39"/>
+      <c r="G6" s="43" t="s">
+        <v>714</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ref="H6:H7" si="1">$H$4-H9</f>
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ref="I6:I7" si="2">$I$4-I9</f>
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ref="J6:J7" si="3">$J$4-J9</f>
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ref="K6:K7" si="4">$K$4-K9</f>
+        <v>10</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>621</v>
+      </c>
+      <c r="R6">
+        <v>15</v>
+      </c>
+      <c r="T6" t="s">
+        <v>662</v>
+      </c>
+      <c r="U6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="33">
+        <v>29</v>
+      </c>
+      <c r="C7" s="33">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>622</v>
+      </c>
+      <c r="E7" t="s">
+        <v>665</v>
+      </c>
+      <c r="F7" s="39"/>
+      <c r="G7" s="43" t="s">
+        <v>715</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>622</v>
+      </c>
+      <c r="R7" t="s">
+        <v>635</v>
+      </c>
+      <c r="T7" t="s">
+        <v>663</v>
+      </c>
+      <c r="U7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="33">
+        <v>12</v>
+      </c>
+      <c r="C8" s="33">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>717</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>704</v>
+      </c>
+      <c r="H8">
+        <f>COUNTIF(D3:D26,"n")</f>
+        <v>18</v>
+      </c>
+      <c r="I8">
+        <f>COUNTIF(D28:D47,"n")</f>
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <f>COUNTIF(D53:D73,"n")</f>
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <f>SUM(H8:J8)</f>
+        <v>34</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>623</v>
+      </c>
+      <c r="R8">
+        <v>27</v>
+      </c>
+      <c r="T8" t="s">
+        <v>664</v>
+      </c>
+      <c r="U8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="33">
+        <v>5</v>
+      </c>
+      <c r="C9" s="33">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="39"/>
+      <c r="G9" s="43" t="s">
+        <v>714</v>
+      </c>
+      <c r="H9">
+        <f>COUNTIF(E3:E26,"n")</f>
+        <v>21</v>
+      </c>
+      <c r="I9">
+        <f>COUNTIF(E28:E47,"n")</f>
+        <v>12</v>
+      </c>
+      <c r="J9">
+        <f>COUNTIF(E53:E73,"n")</f>
+        <v>8</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ref="K9:K10" si="5">SUM(H9:J9)</f>
+        <v>41</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>624</v>
+      </c>
+      <c r="R9">
+        <v>88</v>
+      </c>
+      <c r="T9" t="s">
+        <v>665</v>
+      </c>
+      <c r="U9" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="33">
+        <v>29</v>
+      </c>
+      <c r="C10" s="33">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>622</v>
+      </c>
+      <c r="E10" t="s">
+        <v>665</v>
+      </c>
+      <c r="F10" s="39"/>
+      <c r="G10" s="43" t="s">
+        <v>715</v>
+      </c>
+      <c r="H10">
+        <f>COUNTIF(B3:B26,"n")</f>
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <f>COUNTIF(B28:B47,"n")</f>
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <f>COUNTIF(B53:B73,"n")</f>
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>625</v>
+      </c>
+      <c r="R10" t="s">
+        <v>634</v>
+      </c>
+      <c r="T10" t="s">
+        <v>666</v>
+      </c>
+      <c r="U10">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="D11" s="38">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>722</v>
+      </c>
+      <c r="G11" s="43" t="s">
+        <v>704</v>
+      </c>
+      <c r="H11" s="59">
+        <f>H5/$H$4*100</f>
+        <v>25</v>
+      </c>
+      <c r="I11" s="59">
+        <f>I5/$I$4*100</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="J11" s="59">
+        <f>J5/$J$4*100</f>
+        <v>50</v>
+      </c>
+      <c r="K11" s="59">
+        <f>K5/$K$4*100</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>626</v>
+      </c>
+      <c r="R11">
+        <v>90</v>
+      </c>
+      <c r="T11" t="s">
+        <v>667</v>
+      </c>
+      <c r="U11" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="33">
+        <v>21</v>
+      </c>
+      <c r="C12" s="33">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="43" t="s">
+        <v>714</v>
+      </c>
+      <c r="H12" s="59">
+        <f t="shared" ref="H12:K13" si="6">H6/$H$4*100</f>
+        <v>12.5</v>
+      </c>
+      <c r="I12" s="59">
+        <f t="shared" ref="I12:I13" si="7">I6/$I$4*100</f>
+        <v>20</v>
+      </c>
+      <c r="J12" s="59">
+        <f t="shared" ref="J12:J13" si="8">J6/$J$4*100</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="K12" s="59">
+        <f t="shared" ref="K12:K13" si="9">K6/$K$4*100</f>
+        <v>19.607843137254903</v>
+      </c>
+      <c r="Q12" s="38">
+        <v>2</v>
+      </c>
+      <c r="R12">
+        <v>60</v>
+      </c>
+      <c r="T12" t="s">
+        <v>668</v>
+      </c>
+      <c r="U12" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="33">
+        <v>22</v>
+      </c>
+      <c r="C13" s="33">
+        <v>22</v>
+      </c>
+      <c r="D13" s="38">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>711</v>
+      </c>
+      <c r="G13" s="43" t="s">
+        <v>718</v>
+      </c>
+      <c r="H13" s="60">
+        <f t="shared" si="6"/>
+        <v>83.333333333333343</v>
+      </c>
+      <c r="I13" s="60">
+        <f t="shared" si="7"/>
+        <v>93.333333333333329</v>
+      </c>
+      <c r="J13" s="60">
+        <f t="shared" si="8"/>
+        <v>91.666666666666657</v>
+      </c>
+      <c r="K13" s="60">
+        <f t="shared" si="9"/>
+        <v>88.235294117647058</v>
+      </c>
+      <c r="Q13" s="38">
+        <v>3</v>
+      </c>
+      <c r="R13">
+        <v>70</v>
+      </c>
+      <c r="T13" t="s">
+        <v>669</v>
+      </c>
+      <c r="U13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="D14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q14" s="38">
+        <v>4</v>
+      </c>
+      <c r="R14">
+        <v>22</v>
+      </c>
+      <c r="T14" t="s">
+        <v>670</v>
+      </c>
+      <c r="U14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="D15" s="38">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q15" s="38">
+        <v>5</v>
+      </c>
+      <c r="R15">
+        <v>81</v>
+      </c>
+      <c r="T15" t="s">
+        <v>671</v>
+      </c>
+      <c r="U15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q16" s="38">
+        <v>6</v>
+      </c>
+      <c r="R16">
+        <v>81</v>
+      </c>
+      <c r="T16" t="s">
+        <v>672</v>
+      </c>
+      <c r="U16">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="58">
+        <v>60</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>488</v>
+      </c>
+      <c r="D17" s="38">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q17" s="38">
+        <v>7</v>
+      </c>
+      <c r="R17" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="33">
+        <v>69</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q18" s="38">
+        <v>8</v>
+      </c>
+      <c r="R18">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" s="33">
+        <v>53</v>
+      </c>
+      <c r="C19" s="33">
+        <v>53</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q19" s="38">
+        <v>9</v>
+      </c>
+      <c r="R19">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" s="33">
+        <v>50</v>
+      </c>
+      <c r="C20" s="33">
+        <v>50</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q20" s="38">
+        <v>10</v>
+      </c>
+      <c r="R20" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" s="33">
+        <v>50</v>
+      </c>
+      <c r="C21" s="33">
+        <v>50</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q21" s="38">
+        <v>11</v>
+      </c>
+      <c r="R21">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="33">
+        <v>53</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q22" s="38">
+        <v>12</v>
+      </c>
+      <c r="R22" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23" s="55">
+        <v>42</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>499</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="51" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="33">
+        <v>71</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" s="33">
+        <v>38</v>
+      </c>
+      <c r="C25" s="33">
+        <v>61</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" s="33">
+        <v>38</v>
+      </c>
+      <c r="C26" s="33">
+        <v>38</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="7" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="17">
+      <c r="A28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="46">
+        <v>93</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="17">
+      <c r="A29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="46">
+        <v>29</v>
+      </c>
+      <c r="D29" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="17">
+      <c r="A30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="17">
+      <c r="A31" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="46">
+        <v>60</v>
+      </c>
+      <c r="D31" s="38">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="17">
+      <c r="A32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>506</v>
+      </c>
+      <c r="D32" s="56" t="s">
+        <v>506</v>
+      </c>
+      <c r="E32" s="56" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="17">
+      <c r="A33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="46" t="s">
+        <v>506</v>
+      </c>
+      <c r="D33" s="56" t="s">
+        <v>506</v>
+      </c>
+      <c r="E33" s="56" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="17">
+      <c r="A34" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="46">
+        <v>66</v>
+      </c>
+      <c r="D34" s="38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="17">
+      <c r="A35" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="46" t="s">
+        <v>506</v>
+      </c>
+      <c r="D35" s="56" t="s">
+        <v>506</v>
+      </c>
+      <c r="E35" s="56" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="17">
+      <c r="A36" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="46">
+        <v>93</v>
+      </c>
+      <c r="D36" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="17">
+      <c r="A37" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="46">
+        <v>60</v>
+      </c>
+      <c r="D37" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="17">
+      <c r="A38" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="46">
+        <v>60</v>
+      </c>
+      <c r="D38" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="17">
+      <c r="A39" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="46" t="s">
+        <v>506</v>
+      </c>
+      <c r="D39" s="56" t="s">
+        <v>506</v>
+      </c>
+      <c r="E39" s="56" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="17">
+      <c r="A40" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="46" t="s">
+        <v>506</v>
+      </c>
+      <c r="D40" s="56" t="s">
+        <v>506</v>
+      </c>
+      <c r="E40" s="56" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="17">
+      <c r="A41" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="46">
+        <v>93</v>
+      </c>
+      <c r="D41" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="17">
+      <c r="A42" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="46">
+        <v>93</v>
+      </c>
+      <c r="D42" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="17">
+      <c r="A43" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="46">
+        <v>93</v>
+      </c>
+      <c r="D43" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E43" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="17">
+      <c r="A44" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="46">
+        <v>93</v>
+      </c>
+      <c r="D44" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="17">
+      <c r="A45" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="46">
+        <v>53</v>
+      </c>
+      <c r="D45" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="17">
+      <c r="A46" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="46">
+        <v>81</v>
+      </c>
+      <c r="D46" s="38">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="17">
+      <c r="A47" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="46">
+        <v>15</v>
+      </c>
+      <c r="D47" s="38" t="s">
+        <v>621</v>
+      </c>
+      <c r="E47" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="17">
+      <c r="A48" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="17">
+      <c r="A49" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" s="46">
+        <v>44</v>
+      </c>
+      <c r="D49" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E49" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="17">
+      <c r="A50" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="D50" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E50" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="17">
+      <c r="A51" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E51" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="7" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="17">
+      <c r="A53" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="B53" s="46">
+        <v>15</v>
+      </c>
+      <c r="D53" s="38" t="s">
+        <v>621</v>
+      </c>
+      <c r="E53" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="17">
+      <c r="A54" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="B54" s="46" t="s">
+        <v>278</v>
+      </c>
+      <c r="D54" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E54" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>542</v>
+      </c>
+      <c r="B55" s="31" t="s">
+        <v>720</v>
+      </c>
+      <c r="D55" s="38">
+        <v>3</v>
+      </c>
+      <c r="E55" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>543</v>
+      </c>
+      <c r="B56" s="46">
+        <v>24</v>
+      </c>
+      <c r="D56" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E56" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>544</v>
+      </c>
+      <c r="B57" s="46" t="s">
+        <v>721</v>
+      </c>
+      <c r="D57" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E57" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>545</v>
+      </c>
+      <c r="B58" s="46" t="s">
+        <v>311</v>
+      </c>
+      <c r="D58" s="38">
+        <v>81</v>
+      </c>
+      <c r="E58" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>546</v>
+      </c>
+      <c r="B59" s="46" t="s">
+        <v>312</v>
+      </c>
+      <c r="D59" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E59" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>547</v>
+      </c>
+      <c r="B60" s="34" t="s">
+        <v>506</v>
+      </c>
+      <c r="D60" s="34" t="s">
+        <v>506</v>
+      </c>
+      <c r="E60" s="56" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>548</v>
+      </c>
+      <c r="B61" s="34" t="s">
+        <v>506</v>
+      </c>
+      <c r="D61" s="34" t="s">
+        <v>506</v>
+      </c>
+      <c r="E61" s="56" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>549</v>
+      </c>
+      <c r="B62" s="34" t="s">
+        <v>506</v>
+      </c>
+      <c r="D62" s="34" t="s">
+        <v>506</v>
+      </c>
+      <c r="E62" s="56" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>550</v>
+      </c>
+      <c r="B63" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="D63" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="E63" s="38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>551</v>
+      </c>
+      <c r="B64" s="46">
+        <v>66</v>
+      </c>
+      <c r="D64" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="E64" s="38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>552</v>
+      </c>
+      <c r="B65" s="46">
+        <v>81</v>
+      </c>
+      <c r="D65" s="57">
+        <v>1</v>
+      </c>
+      <c r="E65" s="38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>553</v>
+      </c>
+      <c r="B66" s="46">
+        <v>22</v>
+      </c>
+      <c r="D66" s="38">
+        <v>4</v>
+      </c>
+      <c r="E66" s="38" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>554</v>
+      </c>
+      <c r="B67" s="46">
+        <v>27</v>
+      </c>
+      <c r="D67" t="s">
+        <v>623</v>
+      </c>
+      <c r="E67" s="38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>555</v>
+      </c>
+      <c r="B68" s="34" t="s">
+        <v>506</v>
+      </c>
+      <c r="D68" s="34" t="s">
+        <v>506</v>
+      </c>
+      <c r="E68" s="56" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>556</v>
+      </c>
+      <c r="B69" s="34" t="s">
+        <v>506</v>
+      </c>
+      <c r="D69" s="34" t="s">
+        <v>506</v>
+      </c>
+      <c r="E69" s="56" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>557</v>
+      </c>
+      <c r="B70" s="34" t="s">
+        <v>506</v>
+      </c>
+      <c r="D70" s="34" t="s">
+        <v>506</v>
+      </c>
+      <c r="E70" s="56" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>558</v>
+      </c>
+      <c r="B71" s="34" t="s">
+        <v>506</v>
+      </c>
+      <c r="D71" s="34" t="s">
+        <v>506</v>
+      </c>
+      <c r="E71" s="56" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>559</v>
+      </c>
+      <c r="B72" s="34" t="s">
+        <v>506</v>
+      </c>
+      <c r="D72" s="34" t="s">
+        <v>506</v>
+      </c>
+      <c r="E72" s="56" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>560</v>
+      </c>
+      <c r="B73" s="34" t="s">
+        <v>506</v>
+      </c>
+      <c r="D73" s="34" t="s">
+        <v>506</v>
+      </c>
+      <c r="E73" s="56" t="s">
+        <v>506</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>